--- a/Verification Plan .xlsx
+++ b/Verification Plan .xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="83">
   <si>
     <t>Design Requirements extraction</t>
   </si>
@@ -133,6 +133,157 @@
   </si>
   <si>
     <t xml:space="preserve">observe the time difference between two signals </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Driver </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Monitor </t>
+  </si>
+  <si>
+    <t>Scoreboard</t>
+  </si>
+  <si>
+    <t>Interface</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It drives reset signal asynchronosly </t>
+  </si>
+  <si>
+    <t>It checks that reset has been performed .</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It adds assertions for asserting that all signals have been triggered at positive edge of the clock </t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Sequence Item</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">It adds assertion to ensure thata output takes one clock cycle . </t>
+  </si>
+  <si>
+    <t xml:space="preserve">It adds a constraint that inpus are 8-bits unsigned. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">It asserts that two outputs at the same clock cycle </t>
+  </si>
+  <si>
+    <t xml:space="preserve">It asserts enetering mode (a) when alu_enable and alu_enable are high </t>
+  </si>
+  <si>
+    <t xml:space="preserve">It generats fully random opcodes and operands </t>
+  </si>
+  <si>
+    <t>In case of 00 opcode , It adds constraint that input B not allowed to be 0x00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In case of 01 opcode , It adds constraint that input A not allowed to be 0xFF and B not allowed to be 0x03 </t>
+  </si>
+  <si>
+    <t>It checks AND operation .</t>
+  </si>
+  <si>
+    <t>It asserts  the interrupts signal if output is 0xF8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In case of 10 opcode , It generates fully random inputs </t>
+  </si>
+  <si>
+    <t>It asserts interrupt signal high if output is 0xF8</t>
+  </si>
+  <si>
+    <t>It asserts the interrupt signal high If output is 0xFF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In case of 11 opcode , It generates fully random inputs </t>
+  </si>
+  <si>
+    <t>It checks NAND operation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It checks OR operation </t>
+  </si>
+  <si>
+    <t>It checks XOR operation.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>It asserts interrupt signal high if output is 0x83 .</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It asserts entering mode (B) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">It monitors each signal received from interface then convert them to transactional level and send all to the scoreboard </t>
+  </si>
+  <si>
+    <t xml:space="preserve">It recieves a random opcode and checks its result </t>
+  </si>
+  <si>
+    <t xml:space="preserve">It generates fully random opcode and constrained random inputs according to each case </t>
+  </si>
+  <si>
+    <t xml:space="preserve">It receives random opcode and checks its results </t>
+  </si>
+  <si>
+    <t xml:space="preserve">In case of 0x00 opcode , no input constraints . </t>
+  </si>
+  <si>
+    <t>It asserts interrupt signal to be high If output is 0xF1</t>
+  </si>
+  <si>
+    <t>It monitors the received signal from interface and convert them all to transactional level and send all to the scoreboard</t>
+  </si>
+  <si>
+    <t>It asserts signal high , If output is 0xF4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It checks AND operation </t>
+  </si>
+  <si>
+    <t xml:space="preserve">It checks XNOR operation </t>
+  </si>
+  <si>
+    <t>In case of 0x01 opcode , constraint is added to input B not to be 0x03</t>
+  </si>
+  <si>
+    <t>In case of 0x10 opcode , It adds constraint in input A not to be 0xF5.</t>
+  </si>
+  <si>
+    <t>It asserts signal high , If output is 0xF5.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It checks NOR operation </t>
+  </si>
+  <si>
+    <t xml:space="preserve">It assert interrupt signal high , If output is 0xFF. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">No constraints added </t>
+  </si>
+  <si>
+    <t xml:space="preserve">It asserts the interrupt is lowered after one clock cycle when interrupt clear is raised </t>
   </si>
 </sst>
 </file>
@@ -142,7 +293,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -170,6 +321,20 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -191,7 +356,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -214,19 +379,29 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -245,6 +420,21 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -542,8 +732,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -551,171 +741,394 @@
     <col min="1" max="1" width="59.28515625" customWidth="1"/>
     <col min="2" max="2" width="52.5703125" customWidth="1"/>
     <col min="3" max="3" width="41.7109375" customWidth="1"/>
+    <col min="4" max="4" width="33.42578125" customWidth="1"/>
+    <col min="5" max="5" width="31.85546875" customWidth="1"/>
+    <col min="6" max="6" width="27.85546875" customWidth="1"/>
+    <col min="7" max="7" width="22.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="48.75" customHeight="1" thickBot="1">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:11" ht="48.75" customHeight="1" thickBot="1">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="9" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" ht="27" customHeight="1">
+      <c r="C1" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="G1" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H1" s="11"/>
+    </row>
+    <row r="2" spans="1:11" ht="27" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" ht="38.25" customHeight="1">
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+    </row>
+    <row r="3" spans="1:11" ht="87.75" customHeight="1">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="8" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="C3" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+    </row>
+    <row r="4" spans="1:11" ht="60">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B4" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="5" spans="1:7">
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+    </row>
+    <row r="5" spans="1:11" ht="45">
       <c r="A5" t="s">
         <v>4</v>
       </c>
       <c r="B5" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" ht="30">
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+    </row>
+    <row r="6" spans="1:11" ht="45">
       <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="8" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" ht="30" customHeight="1">
-      <c r="A7" s="6" t="s">
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+    </row>
+    <row r="7" spans="1:11" ht="61.5" customHeight="1">
+      <c r="A7" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="5"/>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="6" t="s">
+      <c r="B7" s="4"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+    </row>
+    <row r="8" spans="1:11" ht="30">
+      <c r="A8" s="5" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" ht="51.75" customHeight="1">
-      <c r="A9" s="6" t="s">
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+    </row>
+    <row r="9" spans="1:11" ht="72" customHeight="1">
+      <c r="A9" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="5" t="s">
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="G9" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="5"/>
-    </row>
-    <row r="11" spans="1:7" ht="60">
-      <c r="A11" s="9" t="s">
+      <c r="B10" s="4"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+    </row>
+    <row r="11" spans="1:11" ht="75">
+      <c r="A11" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="C11" s="3"/>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="7" t="s">
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="G11" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="5"/>
-    </row>
-    <row r="13" spans="1:7" ht="45">
-      <c r="A13" s="7" t="s">
+      <c r="B12" s="4"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+    </row>
+    <row r="13" spans="1:11" ht="45">
+      <c r="A13" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14" s="7" t="s">
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="G13" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="5"/>
-    </row>
-    <row r="15" spans="1:7" s="3" customFormat="1" ht="45">
+      <c r="B14" s="4"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+    </row>
+    <row r="15" spans="1:11" s="3" customFormat="1" ht="45">
       <c r="A15" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="9" t="s">
+      <c r="B15" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="C15" s="4"/>
-    </row>
-    <row r="16" spans="1:7" s="3" customFormat="1" ht="30">
+      <c r="C15" s="14"/>
+      <c r="D15" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="G15" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="H15" s="8"/>
+      <c r="I15" s="8"/>
+    </row>
+    <row r="16" spans="1:11" s="3" customFormat="1" ht="75">
       <c r="A16" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="9"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="G16" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
     </row>
     <row r="17" spans="1:12" s="3" customFormat="1">
       <c r="A17" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B17" s="9"/>
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="8"/>
     </row>
     <row r="18" spans="1:12" ht="30">
       <c r="A18" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B18" s="9" t="s">
+      <c r="B18" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="F18" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="G18" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="H18" s="8"/>
+      <c r="I18" s="8"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="3"/>
     </row>
     <row r="19" spans="1:12">
       <c r="A19" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="5"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="8"/>
+      <c r="J19" s="3"/>
+      <c r="K19" s="3"/>
     </row>
     <row r="20" spans="1:12" ht="45">
       <c r="A20" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B20" s="9" t="s">
+      <c r="B20" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="F20" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="G20" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="H20" s="8"/>
+      <c r="I20" s="8"/>
       <c r="J20" s="3"/>
       <c r="K20" s="3"/>
       <c r="L20" s="3"/>
@@ -724,47 +1137,95 @@
       <c r="A21" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B21" s="5"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="8"/>
+      <c r="J21" s="3"/>
+      <c r="K21" s="3"/>
     </row>
     <row r="22" spans="1:12" ht="45">
       <c r="A22" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B22" s="9" t="s">
+      <c r="B22" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="F22" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="G22" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="H22" s="8"/>
+      <c r="I22" s="8"/>
+      <c r="J22" s="3"/>
+      <c r="K22" s="3"/>
     </row>
     <row r="23" spans="1:12">
       <c r="A23" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B23" s="5"/>
+      <c r="B23" s="4"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="8"/>
+      <c r="J23" s="3"/>
+      <c r="K23" s="3"/>
     </row>
     <row r="24" spans="1:12" ht="30">
       <c r="A24" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B24" s="9" t="s">
+      <c r="B24" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-    </row>
-    <row r="25" spans="1:12" ht="30">
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="F24" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="G24" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="H24" s="8"/>
+      <c r="I24" s="8"/>
+      <c r="J24" s="3"/>
+      <c r="K24" s="3"/>
+    </row>
+    <row r="25" spans="1:12" ht="45">
       <c r="A25" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B25" s="5" t="s">
+      <c r="B25" s="4" t="s">
         <v>38</v>
       </c>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="G25" s="8"/>
+      <c r="H25" s="8"/>
+      <c r="I25" s="8"/>
+      <c r="J25" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
